--- a/LF/PreTAS/Ivory Coast/civ_pretas_village.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_village.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="202">
   <si>
     <t>form_title</t>
   </si>
@@ -94,12 +94,6 @@
     <t>Population 2019</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>couverture_tdm_2018</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>hint::French</t>
   </si>
   <si>
-    <t>cv_pretas_lf_village</t>
-  </si>
-  <si>
     <t>Fonctionne mieux l'extérieur des bâtiments</t>
   </si>
   <si>
@@ -622,9 +613,6 @@
     <t>regex(., '^[0-9]{3}$')</t>
   </si>
   <si>
-    <t>1. Côte d'Ivoire - Pré TAS FL Formulaire Village</t>
-  </si>
-  <si>
     <t>select_one code_site</t>
   </si>
   <si>
@@ -643,7 +631,10 @@
     <t>Le code du village doit être un nombre à trois chiffres.</t>
   </si>
   <si>
-    <t>Couverture thérapeutique  TDM FL 2018 du site</t>
+    <t>cv_pretas_lf_village_v2</t>
+  </si>
+  <si>
+    <t>1. Côte d'Ivoire - Pré TAS FL Formulaire Site V2</t>
   </si>
 </sst>
 </file>
@@ -762,7 +753,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -785,9 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1087,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -1129,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>9</v>
@@ -1151,11 +1139,11 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>185</v>
+      <c r="B2" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
@@ -1175,13 +1163,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1196,19 +1184,19 @@
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
@@ -1219,13 +1207,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1237,26 +1225,26 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="19" t="s">
-        <v>187</v>
+      <c r="M5" s="18" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
@@ -1264,26 +1252,26 @@
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="19" t="s">
-        <v>187</v>
+      <c r="M6" s="18" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
@@ -1291,28 +1279,28 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="19"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="21" t="s">
-        <v>196</v>
+      <c r="F8" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
@@ -1320,10 +1308,10 @@
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1336,108 +1324,88 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="10"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1465,47 +1433,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>90</v>
+      <c r="D1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1516,7 +1484,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1527,7 +1495,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -1538,7 +1506,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -1549,7 +1517,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -1560,7 +1528,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -1571,7 +1539,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -1582,7 +1550,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>17</v>
@@ -1593,7 +1561,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -1604,7 +1572,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>19</v>
@@ -1615,3641 +1583,3641 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s">
         <v>43</v>
-      </c>
-      <c r="E65" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E70" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D79" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E81" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E82" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E85" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E86" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E88" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E89" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E91" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C92" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E92" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E93" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C95" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D95" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E95" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E96" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D97" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B98" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D98" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D99" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E99" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D100" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E100" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D101" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E101" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E102" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C103" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E103" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B104" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D104" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" t="s">
         <v>41</v>
-      </c>
-      <c r="E104" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E105" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B106" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C106" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E106" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B107" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D107" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E107" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B108" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E108" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B109" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C109" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D109" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E110" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E111" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C112" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E112" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E113" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C114" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D114" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E114" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C115" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D115" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E115" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B116" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C116" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E116" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C117" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E118" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E119" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B120" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C120" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E120" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D121" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E121" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C122" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D122" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C123" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E123" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C124" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D124" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E124" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B125" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C125" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D125" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E125" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B126" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C126" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D126" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E126" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B127" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C127" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D127" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E127" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B128" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C128" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D128" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E128" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C129" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D129" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E129" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C130" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D130" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E130" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C131" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D131" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E131" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C132" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D132" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E132" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C133" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D133" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E133" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C134" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D134" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E134" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B135" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C135" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D135" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E135" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C136" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D136" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E136" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B137" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C137" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D137" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E137" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C138" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D138" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E138" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B139" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C139" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E139" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C140" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E140" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B141" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C141" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D141" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E141" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B142" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C142" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D142" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E142" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B143" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C143" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D143" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E143" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B144" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C144" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D144" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E144" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B145" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C145" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E145" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B146" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C146" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E146" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C147" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D147" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E147" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B148" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C148" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D148" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C149" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D149" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C150" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D150" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E150" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B151" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C151" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D151" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E151" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B152" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C152" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D152" t="s">
+        <v>38</v>
+      </c>
+      <c r="E152" t="s">
         <v>41</v>
-      </c>
-      <c r="E152" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B153" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C153" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D153" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E153" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C154" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D154" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E154" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B155" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C155" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D155" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E155" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B156" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C156" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D156" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E156" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B157" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C157" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D157" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E157" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B158" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C158" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D158" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E158" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C159" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D159" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E159" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C160" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D160" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E160" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B161" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C161" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D161" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E161" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B162" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C162" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D162" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E162" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B163" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C163" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D163" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E163" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B164" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C164" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D164" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E164" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B165" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C165" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D165" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E165" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B166" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C166" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D166" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E166" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B167" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C167" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D167" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E167" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B168" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C168" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D168" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E168" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C169" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D169" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E169" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C170" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D170" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E170" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B171" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C171" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D171" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E171" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C172" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D172" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E172" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C173" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D173" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E173" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C174" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D174" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E174" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C175" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D175" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E175" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C176" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D176" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E176" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E177" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D178" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E178" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D179" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E179" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D180" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E180" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D181" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E181" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D182" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E182" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C183" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D183" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E183" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C184" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D184" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E184" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C185" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D185" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E185" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C186" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D186" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E186" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B187" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C187" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D187" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E187" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B188" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C188" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D188" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E188" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B189" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C189" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D189" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E189" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B190" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C190" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D190" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E190" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B191" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C191" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D191" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E191" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B192" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C192" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D192" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E192" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B193" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C193" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D193" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E193" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B194" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C194" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D194" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E194" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B195" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C195" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D195" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E195" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B196" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C196" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D196" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E196" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B197" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C197" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D197" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E197" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B198" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C198" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D198" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E198" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B199" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C199" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D199" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E199" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B200" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C200" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D200" t="s">
+        <v>40</v>
+      </c>
+      <c r="E200" t="s">
         <v>43</v>
-      </c>
-      <c r="E200" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B201" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C201" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D201" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E201" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B202" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C202" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D202" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E202" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B203" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C203" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D203" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E203" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B204" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C204" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D204" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E204" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B205" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C205" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D205" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E205" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B206" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C206" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D206" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E206" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B207" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C207" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D207" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E207" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B208" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C208" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D208" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E208" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B209" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C209" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D209" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E209" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B210" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C210" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D210" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E210" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B211" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C211" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D211" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E211" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B212" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C212" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D212" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E212" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B213" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C213" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D213" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E213" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B214" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C214" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D214" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E214" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B215" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C215" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D215" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E215" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B216" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C216" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D216" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E216" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B217" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C217" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D217" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E217" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B218" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C218" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D218" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E218" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B219" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C219" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D219" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E219" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B220" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C220" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D220" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E220" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B221" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C221" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D221" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E221" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B222" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C222" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D222" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E222" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B223" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C223" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D223" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E223" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B224" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C224" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D224" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E224" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B225" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C225" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D225" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E225" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B226" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C226" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D226" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E226" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B227" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C227" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D227" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E227" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B228" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C228" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D228" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E228" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B229" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C229" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D229" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E229" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B230" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C230" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D230" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E230" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B231" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C231" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D231" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E231" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B232" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C232" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D232" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E232" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B233" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C233" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D233" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E233" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B234" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C234" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D234" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E234" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B235" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C235" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D235" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E235" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B236" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C236" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D236" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E236" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B237" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C237" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D237" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E237" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B238" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C238" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D238" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E238" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B239" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C239" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D239" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E239" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B240" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C240" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D240" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E240" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B241" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C241" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D241" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E241" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B242" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C242" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D242" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E242" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B243" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C243" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D243" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E243" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B244">
         <v>100</v>
@@ -5258,15 +5226,15 @@
         <v>100</v>
       </c>
       <c r="D244" t="s">
+        <v>38</v>
+      </c>
+      <c r="E244" t="s">
         <v>41</v>
-      </c>
-      <c r="E244" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B245">
         <v>101</v>
@@ -5275,15 +5243,15 @@
         <v>101</v>
       </c>
       <c r="D245" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E245" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B246">
         <v>102</v>
@@ -5292,15 +5260,15 @@
         <v>102</v>
       </c>
       <c r="D246" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E246" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B247">
         <v>103</v>
@@ -5309,15 +5277,15 @@
         <v>103</v>
       </c>
       <c r="D247" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E247" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B248">
         <v>104</v>
@@ -5326,15 +5294,15 @@
         <v>104</v>
       </c>
       <c r="D248" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E248" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B249">
         <v>105</v>
@@ -5343,15 +5311,15 @@
         <v>105</v>
       </c>
       <c r="D249" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E249" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B250">
         <v>106</v>
@@ -5360,15 +5328,15 @@
         <v>106</v>
       </c>
       <c r="D250" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E250" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B251">
         <v>107</v>
@@ -5377,15 +5345,15 @@
         <v>107</v>
       </c>
       <c r="D251" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E251" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B252">
         <v>108</v>
@@ -5394,15 +5362,15 @@
         <v>108</v>
       </c>
       <c r="D252" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E252" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B253">
         <v>109</v>
@@ -5411,15 +5379,15 @@
         <v>109</v>
       </c>
       <c r="D253" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E253" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B254">
         <v>110</v>
@@ -5428,15 +5396,15 @@
         <v>110</v>
       </c>
       <c r="D254" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E254" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B255">
         <v>111</v>
@@ -5445,15 +5413,15 @@
         <v>111</v>
       </c>
       <c r="D255" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E255" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B256">
         <v>112</v>
@@ -5462,15 +5430,15 @@
         <v>112</v>
       </c>
       <c r="D256" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E256" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B257">
         <v>113</v>
@@ -5479,15 +5447,15 @@
         <v>113</v>
       </c>
       <c r="D257" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E257" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B258">
         <v>114</v>
@@ -5496,15 +5464,15 @@
         <v>114</v>
       </c>
       <c r="D258" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E258" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B259">
         <v>115</v>
@@ -5513,15 +5481,15 @@
         <v>115</v>
       </c>
       <c r="D259" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E259" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B260">
         <v>116</v>
@@ -5530,15 +5498,15 @@
         <v>116</v>
       </c>
       <c r="D260" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E260" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B261">
         <v>117</v>
@@ -5547,15 +5515,15 @@
         <v>117</v>
       </c>
       <c r="D261" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E261" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B262">
         <v>118</v>
@@ -5564,15 +5532,15 @@
         <v>118</v>
       </c>
       <c r="D262" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E262" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B263">
         <v>119</v>
@@ -5581,15 +5549,15 @@
         <v>119</v>
       </c>
       <c r="D263" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E263" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B264">
         <v>120</v>
@@ -5598,15 +5566,15 @@
         <v>120</v>
       </c>
       <c r="D264" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E264" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B265">
         <v>121</v>
@@ -5615,15 +5583,15 @@
         <v>121</v>
       </c>
       <c r="D265" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E265" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B266">
         <v>122</v>
@@ -5632,15 +5600,15 @@
         <v>122</v>
       </c>
       <c r="D266" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E266" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B267">
         <v>123</v>
@@ -5649,15 +5617,15 @@
         <v>123</v>
       </c>
       <c r="D267" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E267" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B268">
         <v>124</v>
@@ -5666,15 +5634,15 @@
         <v>124</v>
       </c>
       <c r="D268" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E268" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B269">
         <v>125</v>
@@ -5683,15 +5651,15 @@
         <v>125</v>
       </c>
       <c r="D269" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E269" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B270">
         <v>126</v>
@@ -5700,15 +5668,15 @@
         <v>126</v>
       </c>
       <c r="D270" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E270" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B271">
         <v>127</v>
@@ -5717,15 +5685,15 @@
         <v>127</v>
       </c>
       <c r="D271" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E271" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B272">
         <v>128</v>
@@ -5734,15 +5702,15 @@
         <v>128</v>
       </c>
       <c r="D272" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E272" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B273">
         <v>129</v>
@@ -5751,15 +5719,15 @@
         <v>129</v>
       </c>
       <c r="D273" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E273" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B274">
         <v>130</v>
@@ -5768,15 +5736,15 @@
         <v>130</v>
       </c>
       <c r="D274" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E274" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B275">
         <v>131</v>
@@ -5785,15 +5753,15 @@
         <v>131</v>
       </c>
       <c r="D275" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E275" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B276">
         <v>132</v>
@@ -5802,15 +5770,15 @@
         <v>132</v>
       </c>
       <c r="D276" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E276" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B277">
         <v>133</v>
@@ -5819,15 +5787,15 @@
         <v>133</v>
       </c>
       <c r="D277" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E277" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B278">
         <v>134</v>
@@ -5836,15 +5804,15 @@
         <v>134</v>
       </c>
       <c r="D278" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E278" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B279">
         <v>135</v>
@@ -5853,15 +5821,15 @@
         <v>135</v>
       </c>
       <c r="D279" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E279" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B280">
         <v>136</v>
@@ -5870,15 +5838,15 @@
         <v>136</v>
       </c>
       <c r="D280" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E280" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B281">
         <v>137</v>
@@ -5887,15 +5855,15 @@
         <v>137</v>
       </c>
       <c r="D281" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E281" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B282">
         <v>138</v>
@@ -5904,15 +5872,15 @@
         <v>138</v>
       </c>
       <c r="D282" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E282" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B283">
         <v>139</v>
@@ -5921,15 +5889,15 @@
         <v>139</v>
       </c>
       <c r="D283" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E283" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B284">
         <v>140</v>
@@ -5938,15 +5906,15 @@
         <v>140</v>
       </c>
       <c r="D284" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E284" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B285">
         <v>141</v>
@@ -5955,15 +5923,15 @@
         <v>141</v>
       </c>
       <c r="D285" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E285" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B286">
         <v>142</v>
@@ -5972,15 +5940,15 @@
         <v>142</v>
       </c>
       <c r="D286" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E286" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B287">
         <v>143</v>
@@ -5989,15 +5957,15 @@
         <v>143</v>
       </c>
       <c r="D287" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E287" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B288">
         <v>144</v>
@@ -6006,15 +5974,15 @@
         <v>144</v>
       </c>
       <c r="D288" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E288" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B289">
         <v>145</v>
@@ -6023,15 +5991,15 @@
         <v>145</v>
       </c>
       <c r="D289" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E289" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B290">
         <v>146</v>
@@ -6040,15 +6008,15 @@
         <v>146</v>
       </c>
       <c r="D290" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E290" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B291">
         <v>147</v>
@@ -6057,15 +6025,15 @@
         <v>147</v>
       </c>
       <c r="D291" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E291" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B292">
         <v>148</v>
@@ -6074,15 +6042,15 @@
         <v>148</v>
       </c>
       <c r="D292" t="s">
+        <v>40</v>
+      </c>
+      <c r="E292" t="s">
         <v>43</v>
-      </c>
-      <c r="E292" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B293">
         <v>149</v>
@@ -6091,15 +6059,15 @@
         <v>149</v>
       </c>
       <c r="D293" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E293" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B294">
         <v>150</v>
@@ -6108,15 +6076,15 @@
         <v>150</v>
       </c>
       <c r="D294" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E294" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B295">
         <v>151</v>
@@ -6125,15 +6093,15 @@
         <v>151</v>
       </c>
       <c r="D295" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E295" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B296">
         <v>152</v>
@@ -6142,15 +6110,15 @@
         <v>152</v>
       </c>
       <c r="D296" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E296" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B297">
         <v>153</v>
@@ -6159,15 +6127,15 @@
         <v>153</v>
       </c>
       <c r="D297" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E297" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B298">
         <v>154</v>
@@ -6176,15 +6144,15 @@
         <v>154</v>
       </c>
       <c r="D298" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E298" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B299">
         <v>155</v>
@@ -6193,15 +6161,15 @@
         <v>155</v>
       </c>
       <c r="D299" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E299" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B300">
         <v>156</v>
@@ -6210,15 +6178,15 @@
         <v>156</v>
       </c>
       <c r="D300" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E300" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B301">
         <v>157</v>
@@ -6227,15 +6195,15 @@
         <v>157</v>
       </c>
       <c r="D301" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E301" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B302">
         <v>158</v>
@@ -6244,15 +6212,15 @@
         <v>158</v>
       </c>
       <c r="D302" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E302" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B303">
         <v>159</v>
@@ -6261,15 +6229,15 @@
         <v>159</v>
       </c>
       <c r="D303" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E303" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B304">
         <v>160</v>
@@ -6278,15 +6246,15 @@
         <v>160</v>
       </c>
       <c r="D304" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E304" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B305">
         <v>161</v>
@@ -6295,15 +6263,15 @@
         <v>161</v>
       </c>
       <c r="D305" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E305" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B306">
         <v>162</v>
@@ -6312,15 +6280,15 @@
         <v>162</v>
       </c>
       <c r="D306" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E306" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B307">
         <v>163</v>
@@ -6329,15 +6297,15 @@
         <v>163</v>
       </c>
       <c r="D307" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E307" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B308">
         <v>164</v>
@@ -6346,15 +6314,15 @@
         <v>164</v>
       </c>
       <c r="D308" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E308" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B309">
         <v>165</v>
@@ -6363,15 +6331,15 @@
         <v>165</v>
       </c>
       <c r="D309" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E309" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B310">
         <v>166</v>
@@ -6380,15 +6348,15 @@
         <v>166</v>
       </c>
       <c r="D310" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E310" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B311">
         <v>167</v>
@@ -6397,15 +6365,15 @@
         <v>167</v>
       </c>
       <c r="D311" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E311" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B312">
         <v>168</v>
@@ -6414,15 +6382,15 @@
         <v>168</v>
       </c>
       <c r="D312" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E312" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B313">
         <v>169</v>
@@ -6431,15 +6399,15 @@
         <v>169</v>
       </c>
       <c r="D313" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E313" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B314">
         <v>170</v>
@@ -6448,15 +6416,15 @@
         <v>170</v>
       </c>
       <c r="D314" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E314" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B315">
         <v>171</v>
@@ -6465,15 +6433,15 @@
         <v>171</v>
       </c>
       <c r="D315" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E315" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B316">
         <v>172</v>
@@ -6482,15 +6450,15 @@
         <v>172</v>
       </c>
       <c r="D316" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E316" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B317">
         <v>173</v>
@@ -6499,15 +6467,15 @@
         <v>173</v>
       </c>
       <c r="D317" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E317" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B318">
         <v>174</v>
@@ -6516,15 +6484,15 @@
         <v>174</v>
       </c>
       <c r="D318" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E318" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B319">
         <v>175</v>
@@ -6533,15 +6501,15 @@
         <v>175</v>
       </c>
       <c r="D319" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E319" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B320">
         <v>176</v>
@@ -6550,15 +6518,15 @@
         <v>176</v>
       </c>
       <c r="D320" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E320" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B321">
         <v>177</v>
@@ -6567,15 +6535,15 @@
         <v>177</v>
       </c>
       <c r="D321" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E321" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B322">
         <v>178</v>
@@ -6584,15 +6552,15 @@
         <v>178</v>
       </c>
       <c r="D322" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E322" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B323">
         <v>179</v>
@@ -6601,15 +6569,15 @@
         <v>179</v>
       </c>
       <c r="D323" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E323" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B324">
         <v>180</v>
@@ -6618,15 +6586,15 @@
         <v>180</v>
       </c>
       <c r="D324" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E324" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B325">
         <v>181</v>
@@ -6635,15 +6603,15 @@
         <v>181</v>
       </c>
       <c r="D325" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E325" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B326">
         <v>182</v>
@@ -6652,15 +6620,15 @@
         <v>182</v>
       </c>
       <c r="D326" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E326" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B327">
         <v>183</v>
@@ -6669,15 +6637,15 @@
         <v>183</v>
       </c>
       <c r="D327" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E327" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B328">
         <v>184</v>
@@ -6686,15 +6654,15 @@
         <v>184</v>
       </c>
       <c r="D328" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E328" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B329">
         <v>185</v>
@@ -6703,15 +6671,15 @@
         <v>185</v>
       </c>
       <c r="D329" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E329" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B330">
         <v>186</v>
@@ -6720,15 +6688,15 @@
         <v>186</v>
       </c>
       <c r="D330" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E330" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B331">
         <v>187</v>
@@ -6737,15 +6705,15 @@
         <v>187</v>
       </c>
       <c r="D331" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E331" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B332">
         <v>188</v>
@@ -6754,15 +6722,15 @@
         <v>188</v>
       </c>
       <c r="D332" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E332" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B333">
         <v>189</v>
@@ -6771,15 +6739,15 @@
         <v>189</v>
       </c>
       <c r="D333" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E333" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B334">
         <v>190</v>
@@ -6788,15 +6756,15 @@
         <v>190</v>
       </c>
       <c r="D334" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E334" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B335">
         <v>191</v>
@@ -6805,10 +6773,10 @@
         <v>191</v>
       </c>
       <c r="D335" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E335" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6823,7 +6791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6845,15 +6813,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>20200310</v>

--- a/LF/PreTAS/Ivory Coast/civ_pretas_village.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_village.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="295">
   <si>
     <t>form_title</t>
   </si>
@@ -589,12 +589,6 @@
     <t>site</t>
   </si>
   <si>
-    <t>Site sentinnelle/Control Ponctuel</t>
-  </si>
-  <si>
-    <t>Entrer le nom du Site sentinnelle/Control Ponctuel</t>
-  </si>
-  <si>
     <t>site2</t>
   </si>
   <si>
@@ -610,9 +604,6 @@
     <t>${site} != 'Autre'</t>
   </si>
   <si>
-    <t>regex(., '^[0-9]{3}$')</t>
-  </si>
-  <si>
     <t>select_one code_site</t>
   </si>
   <si>
@@ -622,35 +613,316 @@
     <t>code_site2</t>
   </si>
   <si>
-    <t>Entrer le code du Site sentinnelle/Control Ponctuel</t>
-  </si>
-  <si>
-    <t>Code du Site sentinnelle/Control Ponctuel</t>
-  </si>
-  <si>
-    <t>Le code du village doit être un nombre à trois chiffres.</t>
-  </si>
-  <si>
-    <t>cv_pretas_lf_village_v2</t>
-  </si>
-  <si>
-    <t>1. Côte d'Ivoire - Pré TAS FL Formulaire Site V2</t>
+    <t>Site sentinelle/control ponctuel</t>
+  </si>
+  <si>
+    <t>cv_pretas_lf_village_v3</t>
+  </si>
+  <si>
+    <t>1. Côte d'Ivoire - Pré TAS FL Formulaire Site V3</t>
+  </si>
+  <si>
+    <t>Code du Site sentinelle/control ponctuel</t>
+  </si>
+  <si>
+    <t>select_one code_site2</t>
+  </si>
+  <si>
+    <t>Entrer le nom du nouveau site</t>
+  </si>
+  <si>
+    <t>Site de substitution</t>
+  </si>
+  <si>
+    <t>Sélectionner le nom du site remplacé</t>
+  </si>
+  <si>
+    <t>Site prévue à l'avance</t>
+  </si>
+  <si>
+    <t>ABONGOUA (153)</t>
+  </si>
+  <si>
+    <t>ADOUAKOUAKRO (159)</t>
+  </si>
+  <si>
+    <t>AGNIA (158)</t>
+  </si>
+  <si>
+    <t>AGNIKRO (151)</t>
+  </si>
+  <si>
+    <t>AHUIKOI (107)</t>
+  </si>
+  <si>
+    <t>AKOUNOUGBE (148)</t>
+  </si>
+  <si>
+    <t>AKROABA (124)</t>
+  </si>
+  <si>
+    <t>AKROABA A (170)</t>
+  </si>
+  <si>
+    <t>AMOI KOUAO (147)</t>
+  </si>
+  <si>
+    <t>ANGAYE (163)</t>
+  </si>
+  <si>
+    <t>AROSSUA (138)</t>
+  </si>
+  <si>
+    <t>ASSEUDJI (152)</t>
+  </si>
+  <si>
+    <t>BANNEU (191)</t>
+  </si>
+  <si>
+    <t>BEOUE (136)</t>
+  </si>
+  <si>
+    <t>BISSASSE (139)</t>
+  </si>
+  <si>
+    <t>BOLI (168)</t>
+  </si>
+  <si>
+    <t>BOUADIKRO (160)</t>
+  </si>
+  <si>
+    <t>DANGUIRA (108)</t>
+  </si>
+  <si>
+    <t>DIANOUFLA (115)</t>
+  </si>
+  <si>
+    <t>DIBOKE (155)</t>
+  </si>
+  <si>
+    <t>DIHINIBO (137)</t>
+  </si>
+  <si>
+    <t>DIHINIBO (184)</t>
+  </si>
+  <si>
+    <t>DIOULATIEDOUGOU (177)</t>
+  </si>
+  <si>
+    <t>DJÊGBANANLÔGÔ (186)</t>
+  </si>
+  <si>
+    <t>DJIMINIKOFFIKRO (102)</t>
+  </si>
+  <si>
+    <t>EBOKO (149)</t>
+  </si>
+  <si>
+    <t>FARAKORO (178)</t>
+  </si>
+  <si>
+    <t>FIDIMANOU (114)</t>
+  </si>
+  <si>
+    <t>FOUMBOLO (166)</t>
+  </si>
+  <si>
+    <t>GANGORO AITOU (141)</t>
+  </si>
+  <si>
+    <t>GAOUSSOUKRO (103)</t>
+  </si>
+  <si>
+    <t>GBELEBAN (131)</t>
+  </si>
+  <si>
+    <t>GBILI (165)</t>
+  </si>
+  <si>
+    <t>GBONGAHA (132)</t>
+  </si>
+  <si>
+    <t>GLAREU (145)</t>
+  </si>
+  <si>
+    <t>IPOUAGUI (175)</t>
+  </si>
+  <si>
+    <t>IPOUKRO (173)</t>
+  </si>
+  <si>
+    <t>KAFOUDOUGOU (120)</t>
+  </si>
+  <si>
+    <t>KAMELE (157)</t>
+  </si>
+  <si>
+    <t>KANAWOLO (176)</t>
+  </si>
+  <si>
+    <t>KANGRASSOU-YOBOUEBO (123)</t>
+  </si>
+  <si>
+    <t>KANGRETA (161)</t>
+  </si>
+  <si>
+    <t>KARIE (182)</t>
+  </si>
+  <si>
+    <t>KAYO (181)</t>
+  </si>
+  <si>
+    <t>KODJINA (100)</t>
+  </si>
+  <si>
+    <t>KOKOLOPOZO (134)</t>
+  </si>
+  <si>
+    <t>KONG2 (106)</t>
+  </si>
+  <si>
+    <t>KOROBO (185)</t>
+  </si>
+  <si>
+    <t>KOTIESSOU (140)</t>
+  </si>
+  <si>
+    <t>KOUASSIBENIEKRO (146)</t>
+  </si>
+  <si>
+    <t>KPEFELE (128)</t>
+  </si>
+  <si>
+    <t>KREKRENI (189)</t>
+  </si>
+  <si>
+    <t>M’BAOUSSIESSOU (112)</t>
+  </si>
+  <si>
+    <t>MAHIEOUA (119)</t>
+  </si>
+  <si>
+    <t>MAHIEOUA (129)</t>
+  </si>
+  <si>
+    <t>MAHIEOUA (135)</t>
+  </si>
+  <si>
+    <t>MANZANOUAN (105)</t>
+  </si>
+  <si>
+    <t>MENOU (113)</t>
+  </si>
+  <si>
+    <t>N’DAKONANKRO (121)</t>
+  </si>
+  <si>
+    <t>N’GUESSANBAKRO (143)</t>
+  </si>
+  <si>
+    <t>NAMASSI (111)</t>
+  </si>
+  <si>
+    <t>NEONIE (133)</t>
+  </si>
+  <si>
+    <t>NIAMOIN (117)</t>
+  </si>
+  <si>
+    <t>NIANDA (154)</t>
+  </si>
+  <si>
+    <t>NIANDEGUE (116)</t>
+  </si>
+  <si>
+    <t>NIZAHON 2 (172)</t>
+  </si>
+  <si>
+    <t>OUEOULO (179)</t>
+  </si>
+  <si>
+    <t>PEHE (188)</t>
+  </si>
+  <si>
+    <t>PEKAHA (130)</t>
+  </si>
+  <si>
+    <t>PONA (126)</t>
+  </si>
+  <si>
+    <t>RAVIART (122)</t>
+  </si>
+  <si>
+    <t>SALEYE (110)</t>
+  </si>
+  <si>
+    <t>SANGANAME (164)</t>
+  </si>
+  <si>
+    <t>SAPLI (156)</t>
+  </si>
+  <si>
+    <t>SEMAN (190)</t>
+  </si>
+  <si>
+    <t>SOKOURADJAN (169)</t>
+  </si>
+  <si>
+    <t>SOUROUKAHA (174)</t>
+  </si>
+  <si>
+    <t>SYALEDOUO (162)</t>
+  </si>
+  <si>
+    <t>TAGBAYO (125)</t>
+  </si>
+  <si>
+    <t>TCHALEVOGO (127)</t>
+  </si>
+  <si>
+    <t>TIAZALE (180)</t>
+  </si>
+  <si>
+    <t>TOLIESSO (101)</t>
+  </si>
+  <si>
+    <t>TOUGBO (118)</t>
+  </si>
+  <si>
+    <t>TOUMBOKRO (144)</t>
+  </si>
+  <si>
+    <t>TOYEBLY (142)</t>
+  </si>
+  <si>
+    <t>WENEDOUGOU (171)</t>
+  </si>
+  <si>
+    <t>YADIBIKRO (187)</t>
+  </si>
+  <si>
+    <t>YAOKRO (183)</t>
+  </si>
+  <si>
+    <t>ZANZANSOU (167)</t>
+  </si>
+  <si>
+    <t>ZEAGLO (109)</t>
+  </si>
+  <si>
+    <t>ZODJI (150)</t>
+  </si>
+  <si>
+    <t>ZONONKOI (104)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -750,48 +1022,47 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1077,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1089,15 +1360,16 @@
     <col min="4" max="4" width="23.25" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.75" customWidth="1"/>
-    <col min="8" max="8" width="30.625" customWidth="1"/>
-    <col min="9" max="10" width="11" customWidth="1"/>
+    <col min="7" max="7" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.375" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
     <col min="13" max="13" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1207,13 +1479,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1231,20 +1503,20 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="19"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
@@ -1261,17 +1533,19 @@
         <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
@@ -1281,26 +1555,24 @@
       <c r="L7" s="5"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>201</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>199</v>
-      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
@@ -1308,7 +1580,9 @@
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="18" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -1325,7 +1599,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
@@ -1416,18 +1690,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E335"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A243" sqref="A243"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C336" sqref="C336:C427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -5217,7 +5491,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B244">
         <v>100</v>
@@ -5234,7 +5508,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B245">
         <v>101</v>
@@ -5251,7 +5525,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B246">
         <v>102</v>
@@ -5268,7 +5542,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B247">
         <v>103</v>
@@ -5285,7 +5559,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B248">
         <v>104</v>
@@ -5302,7 +5576,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B249">
         <v>105</v>
@@ -5319,7 +5593,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B250">
         <v>106</v>
@@ -5336,7 +5610,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B251">
         <v>107</v>
@@ -5353,7 +5627,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B252">
         <v>108</v>
@@ -5370,7 +5644,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B253">
         <v>109</v>
@@ -5387,7 +5661,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B254">
         <v>110</v>
@@ -5404,7 +5678,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B255">
         <v>111</v>
@@ -5421,7 +5695,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B256">
         <v>112</v>
@@ -5438,7 +5712,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B257">
         <v>113</v>
@@ -5455,7 +5729,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B258">
         <v>114</v>
@@ -5472,7 +5746,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B259">
         <v>115</v>
@@ -5489,7 +5763,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B260">
         <v>116</v>
@@ -5506,7 +5780,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B261">
         <v>117</v>
@@ -5523,7 +5797,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B262">
         <v>118</v>
@@ -5540,7 +5814,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B263">
         <v>119</v>
@@ -5557,7 +5831,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B264">
         <v>120</v>
@@ -5574,7 +5848,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B265">
         <v>121</v>
@@ -5591,7 +5865,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B266">
         <v>122</v>
@@ -5608,7 +5882,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B267">
         <v>123</v>
@@ -5625,7 +5899,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B268">
         <v>124</v>
@@ -5642,7 +5916,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B269">
         <v>125</v>
@@ -5659,7 +5933,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B270">
         <v>126</v>
@@ -5676,7 +5950,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B271">
         <v>127</v>
@@ -5693,7 +5967,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B272">
         <v>128</v>
@@ -5710,7 +5984,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B273">
         <v>129</v>
@@ -5727,7 +6001,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B274">
         <v>130</v>
@@ -5744,7 +6018,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B275">
         <v>131</v>
@@ -5761,7 +6035,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B276">
         <v>132</v>
@@ -5778,7 +6052,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B277">
         <v>133</v>
@@ -5795,7 +6069,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B278">
         <v>134</v>
@@ -5812,7 +6086,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B279">
         <v>135</v>
@@ -5829,7 +6103,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B280">
         <v>136</v>
@@ -5846,7 +6120,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B281">
         <v>137</v>
@@ -5863,7 +6137,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B282">
         <v>138</v>
@@ -5880,7 +6154,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B283">
         <v>139</v>
@@ -5897,7 +6171,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B284">
         <v>140</v>
@@ -5914,7 +6188,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B285">
         <v>141</v>
@@ -5931,7 +6205,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B286">
         <v>142</v>
@@ -5948,7 +6222,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B287">
         <v>143</v>
@@ -5965,7 +6239,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B288">
         <v>144</v>
@@ -5982,7 +6256,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B289">
         <v>145</v>
@@ -5999,7 +6273,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B290">
         <v>146</v>
@@ -6016,7 +6290,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B291">
         <v>147</v>
@@ -6033,7 +6307,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B292">
         <v>148</v>
@@ -6050,7 +6324,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B293">
         <v>149</v>
@@ -6067,7 +6341,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B294">
         <v>150</v>
@@ -6084,7 +6358,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B295">
         <v>151</v>
@@ -6101,7 +6375,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B296">
         <v>152</v>
@@ -6118,7 +6392,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B297">
         <v>153</v>
@@ -6135,7 +6409,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B298">
         <v>154</v>
@@ -6152,7 +6426,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B299">
         <v>155</v>
@@ -6169,7 +6443,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B300">
         <v>156</v>
@@ -6186,7 +6460,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B301">
         <v>157</v>
@@ -6203,7 +6477,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B302">
         <v>158</v>
@@ -6220,7 +6494,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B303">
         <v>159</v>
@@ -6237,7 +6511,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B304">
         <v>160</v>
@@ -6254,7 +6528,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B305">
         <v>161</v>
@@ -6271,7 +6545,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B306">
         <v>162</v>
@@ -6288,7 +6562,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B307">
         <v>163</v>
@@ -6305,7 +6579,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B308">
         <v>164</v>
@@ -6322,7 +6596,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B309">
         <v>165</v>
@@ -6339,7 +6613,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B310">
         <v>166</v>
@@ -6356,7 +6630,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B311">
         <v>167</v>
@@ -6373,7 +6647,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B312">
         <v>168</v>
@@ -6390,7 +6664,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B313">
         <v>169</v>
@@ -6407,7 +6681,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B314">
         <v>170</v>
@@ -6424,7 +6698,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B315">
         <v>171</v>
@@ -6441,7 +6715,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B316">
         <v>172</v>
@@ -6458,7 +6732,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B317">
         <v>173</v>
@@ -6475,7 +6749,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B318">
         <v>174</v>
@@ -6492,7 +6766,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B319">
         <v>175</v>
@@ -6509,7 +6783,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B320">
         <v>176</v>
@@ -6526,7 +6800,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B321">
         <v>177</v>
@@ -6543,7 +6817,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B322">
         <v>178</v>
@@ -6560,7 +6834,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B323">
         <v>179</v>
@@ -6577,7 +6851,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B324">
         <v>180</v>
@@ -6594,7 +6868,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B325">
         <v>181</v>
@@ -6611,7 +6885,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B326">
         <v>182</v>
@@ -6628,7 +6902,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B327">
         <v>183</v>
@@ -6645,7 +6919,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B328">
         <v>184</v>
@@ -6662,7 +6936,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B329">
         <v>185</v>
@@ -6679,7 +6953,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B330">
         <v>186</v>
@@ -6696,7 +6970,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B331">
         <v>187</v>
@@ -6713,7 +6987,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B332">
         <v>188</v>
@@ -6730,7 +7004,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B333">
         <v>189</v>
@@ -6747,7 +7021,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B334">
         <v>190</v>
@@ -6764,7 +7038,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B335">
         <v>191</v>
@@ -6777,6 +7051,1570 @@
       </c>
       <c r="E335" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>193</v>
+      </c>
+      <c r="B336">
+        <v>153</v>
+      </c>
+      <c r="C336" t="s">
+        <v>203</v>
+      </c>
+      <c r="D336" t="s">
+        <v>40</v>
+      </c>
+      <c r="E336" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>193</v>
+      </c>
+      <c r="B337">
+        <v>159</v>
+      </c>
+      <c r="C337" t="s">
+        <v>204</v>
+      </c>
+      <c r="D337" t="s">
+        <v>40</v>
+      </c>
+      <c r="E337" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>193</v>
+      </c>
+      <c r="B338">
+        <v>158</v>
+      </c>
+      <c r="C338" t="s">
+        <v>205</v>
+      </c>
+      <c r="D338" t="s">
+        <v>40</v>
+      </c>
+      <c r="E338" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>193</v>
+      </c>
+      <c r="B339">
+        <v>151</v>
+      </c>
+      <c r="C339" t="s">
+        <v>206</v>
+      </c>
+      <c r="D339" t="s">
+        <v>40</v>
+      </c>
+      <c r="E339" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>193</v>
+      </c>
+      <c r="B340">
+        <v>107</v>
+      </c>
+      <c r="C340" t="s">
+        <v>207</v>
+      </c>
+      <c r="D340" t="s">
+        <v>38</v>
+      </c>
+      <c r="E340" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>193</v>
+      </c>
+      <c r="B341">
+        <v>148</v>
+      </c>
+      <c r="C341" t="s">
+        <v>208</v>
+      </c>
+      <c r="D341" t="s">
+        <v>40</v>
+      </c>
+      <c r="E341" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>193</v>
+      </c>
+      <c r="B342">
+        <v>124</v>
+      </c>
+      <c r="C342" t="s">
+        <v>209</v>
+      </c>
+      <c r="D342" t="s">
+        <v>38</v>
+      </c>
+      <c r="E342" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>193</v>
+      </c>
+      <c r="B343">
+        <v>170</v>
+      </c>
+      <c r="C343" t="s">
+        <v>210</v>
+      </c>
+      <c r="D343" t="s">
+        <v>40</v>
+      </c>
+      <c r="E343" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>193</v>
+      </c>
+      <c r="B344">
+        <v>147</v>
+      </c>
+      <c r="C344" t="s">
+        <v>211</v>
+      </c>
+      <c r="D344" t="s">
+        <v>40</v>
+      </c>
+      <c r="E344" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>193</v>
+      </c>
+      <c r="B345">
+        <v>163</v>
+      </c>
+      <c r="C345" t="s">
+        <v>212</v>
+      </c>
+      <c r="D345" t="s">
+        <v>40</v>
+      </c>
+      <c r="E345" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>193</v>
+      </c>
+      <c r="B346">
+        <v>138</v>
+      </c>
+      <c r="C346" t="s">
+        <v>213</v>
+      </c>
+      <c r="D346" t="s">
+        <v>38</v>
+      </c>
+      <c r="E346" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>193</v>
+      </c>
+      <c r="B347">
+        <v>152</v>
+      </c>
+      <c r="C347" t="s">
+        <v>214</v>
+      </c>
+      <c r="D347" t="s">
+        <v>40</v>
+      </c>
+      <c r="E347" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>193</v>
+      </c>
+      <c r="B348">
+        <v>191</v>
+      </c>
+      <c r="C348" t="s">
+        <v>215</v>
+      </c>
+      <c r="D348" t="s">
+        <v>40</v>
+      </c>
+      <c r="E348" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>193</v>
+      </c>
+      <c r="B349">
+        <v>136</v>
+      </c>
+      <c r="C349" t="s">
+        <v>216</v>
+      </c>
+      <c r="D349" t="s">
+        <v>38</v>
+      </c>
+      <c r="E349" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>193</v>
+      </c>
+      <c r="B350">
+        <v>139</v>
+      </c>
+      <c r="C350" t="s">
+        <v>217</v>
+      </c>
+      <c r="D350" t="s">
+        <v>38</v>
+      </c>
+      <c r="E350" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>193</v>
+      </c>
+      <c r="B351">
+        <v>168</v>
+      </c>
+      <c r="C351" t="s">
+        <v>218</v>
+      </c>
+      <c r="D351" t="s">
+        <v>40</v>
+      </c>
+      <c r="E351" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>193</v>
+      </c>
+      <c r="B352">
+        <v>160</v>
+      </c>
+      <c r="C352" t="s">
+        <v>219</v>
+      </c>
+      <c r="D352" t="s">
+        <v>40</v>
+      </c>
+      <c r="E352" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>193</v>
+      </c>
+      <c r="B353">
+        <v>108</v>
+      </c>
+      <c r="C353" t="s">
+        <v>220</v>
+      </c>
+      <c r="D353" t="s">
+        <v>38</v>
+      </c>
+      <c r="E353" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>193</v>
+      </c>
+      <c r="B354">
+        <v>115</v>
+      </c>
+      <c r="C354" t="s">
+        <v>221</v>
+      </c>
+      <c r="D354" t="s">
+        <v>38</v>
+      </c>
+      <c r="E354" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>193</v>
+      </c>
+      <c r="B355">
+        <v>155</v>
+      </c>
+      <c r="C355" t="s">
+        <v>222</v>
+      </c>
+      <c r="D355" t="s">
+        <v>40</v>
+      </c>
+      <c r="E355" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>193</v>
+      </c>
+      <c r="B356">
+        <v>137</v>
+      </c>
+      <c r="C356" t="s">
+        <v>223</v>
+      </c>
+      <c r="D356" t="s">
+        <v>38</v>
+      </c>
+      <c r="E356" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>193</v>
+      </c>
+      <c r="B357">
+        <v>184</v>
+      </c>
+      <c r="C357" t="s">
+        <v>224</v>
+      </c>
+      <c r="D357" t="s">
+        <v>40</v>
+      </c>
+      <c r="E357" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>193</v>
+      </c>
+      <c r="B358">
+        <v>177</v>
+      </c>
+      <c r="C358" t="s">
+        <v>225</v>
+      </c>
+      <c r="D358" t="s">
+        <v>40</v>
+      </c>
+      <c r="E358" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>193</v>
+      </c>
+      <c r="B359">
+        <v>186</v>
+      </c>
+      <c r="C359" t="s">
+        <v>226</v>
+      </c>
+      <c r="D359" t="s">
+        <v>40</v>
+      </c>
+      <c r="E359" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>193</v>
+      </c>
+      <c r="B360">
+        <v>102</v>
+      </c>
+      <c r="C360" t="s">
+        <v>227</v>
+      </c>
+      <c r="D360" t="s">
+        <v>38</v>
+      </c>
+      <c r="E360" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>193</v>
+      </c>
+      <c r="B361">
+        <v>149</v>
+      </c>
+      <c r="C361" t="s">
+        <v>228</v>
+      </c>
+      <c r="D361" t="s">
+        <v>40</v>
+      </c>
+      <c r="E361" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>193</v>
+      </c>
+      <c r="B362">
+        <v>178</v>
+      </c>
+      <c r="C362" t="s">
+        <v>229</v>
+      </c>
+      <c r="D362" t="s">
+        <v>40</v>
+      </c>
+      <c r="E362" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>193</v>
+      </c>
+      <c r="B363">
+        <v>114</v>
+      </c>
+      <c r="C363" t="s">
+        <v>230</v>
+      </c>
+      <c r="D363" t="s">
+        <v>38</v>
+      </c>
+      <c r="E363" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>193</v>
+      </c>
+      <c r="B364">
+        <v>166</v>
+      </c>
+      <c r="C364" t="s">
+        <v>231</v>
+      </c>
+      <c r="D364" t="s">
+        <v>40</v>
+      </c>
+      <c r="E364" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>193</v>
+      </c>
+      <c r="B365">
+        <v>141</v>
+      </c>
+      <c r="C365" t="s">
+        <v>232</v>
+      </c>
+      <c r="D365" t="s">
+        <v>38</v>
+      </c>
+      <c r="E365" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>193</v>
+      </c>
+      <c r="B366">
+        <v>103</v>
+      </c>
+      <c r="C366" t="s">
+        <v>233</v>
+      </c>
+      <c r="D366" t="s">
+        <v>38</v>
+      </c>
+      <c r="E366" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>193</v>
+      </c>
+      <c r="B367">
+        <v>131</v>
+      </c>
+      <c r="C367" t="s">
+        <v>234</v>
+      </c>
+      <c r="D367" t="s">
+        <v>38</v>
+      </c>
+      <c r="E367" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>193</v>
+      </c>
+      <c r="B368">
+        <v>165</v>
+      </c>
+      <c r="C368" t="s">
+        <v>235</v>
+      </c>
+      <c r="D368" t="s">
+        <v>40</v>
+      </c>
+      <c r="E368" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>193</v>
+      </c>
+      <c r="B369">
+        <v>132</v>
+      </c>
+      <c r="C369" t="s">
+        <v>236</v>
+      </c>
+      <c r="D369" t="s">
+        <v>38</v>
+      </c>
+      <c r="E369" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>193</v>
+      </c>
+      <c r="B370">
+        <v>145</v>
+      </c>
+      <c r="C370" t="s">
+        <v>237</v>
+      </c>
+      <c r="D370" t="s">
+        <v>38</v>
+      </c>
+      <c r="E370" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>193</v>
+      </c>
+      <c r="B371">
+        <v>175</v>
+      </c>
+      <c r="C371" t="s">
+        <v>238</v>
+      </c>
+      <c r="D371" t="s">
+        <v>40</v>
+      </c>
+      <c r="E371" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>193</v>
+      </c>
+      <c r="B372">
+        <v>173</v>
+      </c>
+      <c r="C372" t="s">
+        <v>239</v>
+      </c>
+      <c r="D372" t="s">
+        <v>40</v>
+      </c>
+      <c r="E372" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>193</v>
+      </c>
+      <c r="B373">
+        <v>120</v>
+      </c>
+      <c r="C373" t="s">
+        <v>240</v>
+      </c>
+      <c r="D373" t="s">
+        <v>38</v>
+      </c>
+      <c r="E373" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>193</v>
+      </c>
+      <c r="B374">
+        <v>157</v>
+      </c>
+      <c r="C374" t="s">
+        <v>241</v>
+      </c>
+      <c r="D374" t="s">
+        <v>40</v>
+      </c>
+      <c r="E374" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>193</v>
+      </c>
+      <c r="B375">
+        <v>176</v>
+      </c>
+      <c r="C375" t="s">
+        <v>242</v>
+      </c>
+      <c r="D375" t="s">
+        <v>40</v>
+      </c>
+      <c r="E375" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>193</v>
+      </c>
+      <c r="B376">
+        <v>123</v>
+      </c>
+      <c r="C376" t="s">
+        <v>243</v>
+      </c>
+      <c r="D376" t="s">
+        <v>38</v>
+      </c>
+      <c r="E376" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>193</v>
+      </c>
+      <c r="B377">
+        <v>161</v>
+      </c>
+      <c r="C377" t="s">
+        <v>244</v>
+      </c>
+      <c r="D377" t="s">
+        <v>40</v>
+      </c>
+      <c r="E377" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>193</v>
+      </c>
+      <c r="B378">
+        <v>182</v>
+      </c>
+      <c r="C378" t="s">
+        <v>245</v>
+      </c>
+      <c r="D378" t="s">
+        <v>40</v>
+      </c>
+      <c r="E378" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>193</v>
+      </c>
+      <c r="B379">
+        <v>181</v>
+      </c>
+      <c r="C379" t="s">
+        <v>246</v>
+      </c>
+      <c r="D379" t="s">
+        <v>40</v>
+      </c>
+      <c r="E379" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>193</v>
+      </c>
+      <c r="B380">
+        <v>100</v>
+      </c>
+      <c r="C380" t="s">
+        <v>247</v>
+      </c>
+      <c r="D380" t="s">
+        <v>38</v>
+      </c>
+      <c r="E380" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>193</v>
+      </c>
+      <c r="B381">
+        <v>134</v>
+      </c>
+      <c r="C381" t="s">
+        <v>248</v>
+      </c>
+      <c r="D381" t="s">
+        <v>38</v>
+      </c>
+      <c r="E381" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>193</v>
+      </c>
+      <c r="B382">
+        <v>106</v>
+      </c>
+      <c r="C382" t="s">
+        <v>249</v>
+      </c>
+      <c r="D382" t="s">
+        <v>38</v>
+      </c>
+      <c r="E382" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>193</v>
+      </c>
+      <c r="B383">
+        <v>185</v>
+      </c>
+      <c r="C383" t="s">
+        <v>250</v>
+      </c>
+      <c r="D383" t="s">
+        <v>40</v>
+      </c>
+      <c r="E383" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>193</v>
+      </c>
+      <c r="B384">
+        <v>140</v>
+      </c>
+      <c r="C384" t="s">
+        <v>251</v>
+      </c>
+      <c r="D384" t="s">
+        <v>38</v>
+      </c>
+      <c r="E384" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>193</v>
+      </c>
+      <c r="B385">
+        <v>146</v>
+      </c>
+      <c r="C385" t="s">
+        <v>252</v>
+      </c>
+      <c r="D385" t="s">
+        <v>40</v>
+      </c>
+      <c r="E385" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>193</v>
+      </c>
+      <c r="B386">
+        <v>128</v>
+      </c>
+      <c r="C386" t="s">
+        <v>253</v>
+      </c>
+      <c r="D386" t="s">
+        <v>38</v>
+      </c>
+      <c r="E386" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>193</v>
+      </c>
+      <c r="B387">
+        <v>189</v>
+      </c>
+      <c r="C387" t="s">
+        <v>254</v>
+      </c>
+      <c r="D387" t="s">
+        <v>40</v>
+      </c>
+      <c r="E387" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>193</v>
+      </c>
+      <c r="B388">
+        <v>112</v>
+      </c>
+      <c r="C388" t="s">
+        <v>255</v>
+      </c>
+      <c r="D388" t="s">
+        <v>38</v>
+      </c>
+      <c r="E388" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>193</v>
+      </c>
+      <c r="B389">
+        <v>119</v>
+      </c>
+      <c r="C389" t="s">
+        <v>256</v>
+      </c>
+      <c r="D389" t="s">
+        <v>38</v>
+      </c>
+      <c r="E389" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>193</v>
+      </c>
+      <c r="B390">
+        <v>129</v>
+      </c>
+      <c r="C390" t="s">
+        <v>257</v>
+      </c>
+      <c r="D390" t="s">
+        <v>38</v>
+      </c>
+      <c r="E390" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>193</v>
+      </c>
+      <c r="B391">
+        <v>135</v>
+      </c>
+      <c r="C391" t="s">
+        <v>258</v>
+      </c>
+      <c r="D391" t="s">
+        <v>38</v>
+      </c>
+      <c r="E391" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>193</v>
+      </c>
+      <c r="B392">
+        <v>105</v>
+      </c>
+      <c r="C392" t="s">
+        <v>259</v>
+      </c>
+      <c r="D392" t="s">
+        <v>38</v>
+      </c>
+      <c r="E392" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>193</v>
+      </c>
+      <c r="B393">
+        <v>113</v>
+      </c>
+      <c r="C393" t="s">
+        <v>260</v>
+      </c>
+      <c r="D393" t="s">
+        <v>38</v>
+      </c>
+      <c r="E393" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>193</v>
+      </c>
+      <c r="B394">
+        <v>121</v>
+      </c>
+      <c r="C394" t="s">
+        <v>261</v>
+      </c>
+      <c r="D394" t="s">
+        <v>38</v>
+      </c>
+      <c r="E394" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>193</v>
+      </c>
+      <c r="B395">
+        <v>143</v>
+      </c>
+      <c r="C395" t="s">
+        <v>262</v>
+      </c>
+      <c r="D395" t="s">
+        <v>38</v>
+      </c>
+      <c r="E395" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>193</v>
+      </c>
+      <c r="B396">
+        <v>111</v>
+      </c>
+      <c r="C396" t="s">
+        <v>263</v>
+      </c>
+      <c r="D396" t="s">
+        <v>38</v>
+      </c>
+      <c r="E396" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>193</v>
+      </c>
+      <c r="B397">
+        <v>133</v>
+      </c>
+      <c r="C397" t="s">
+        <v>264</v>
+      </c>
+      <c r="D397" t="s">
+        <v>38</v>
+      </c>
+      <c r="E397" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>193</v>
+      </c>
+      <c r="B398">
+        <v>117</v>
+      </c>
+      <c r="C398" t="s">
+        <v>265</v>
+      </c>
+      <c r="D398" t="s">
+        <v>38</v>
+      </c>
+      <c r="E398" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>193</v>
+      </c>
+      <c r="B399">
+        <v>154</v>
+      </c>
+      <c r="C399" t="s">
+        <v>266</v>
+      </c>
+      <c r="D399" t="s">
+        <v>40</v>
+      </c>
+      <c r="E399" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>193</v>
+      </c>
+      <c r="B400">
+        <v>116</v>
+      </c>
+      <c r="C400" t="s">
+        <v>267</v>
+      </c>
+      <c r="D400" t="s">
+        <v>38</v>
+      </c>
+      <c r="E400" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>193</v>
+      </c>
+      <c r="B401">
+        <v>172</v>
+      </c>
+      <c r="C401" t="s">
+        <v>268</v>
+      </c>
+      <c r="D401" t="s">
+        <v>40</v>
+      </c>
+      <c r="E401" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>193</v>
+      </c>
+      <c r="B402">
+        <v>179</v>
+      </c>
+      <c r="C402" t="s">
+        <v>269</v>
+      </c>
+      <c r="D402" t="s">
+        <v>40</v>
+      </c>
+      <c r="E402" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>193</v>
+      </c>
+      <c r="B403">
+        <v>188</v>
+      </c>
+      <c r="C403" t="s">
+        <v>270</v>
+      </c>
+      <c r="D403" t="s">
+        <v>40</v>
+      </c>
+      <c r="E403" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>193</v>
+      </c>
+      <c r="B404">
+        <v>130</v>
+      </c>
+      <c r="C404" t="s">
+        <v>271</v>
+      </c>
+      <c r="D404" t="s">
+        <v>38</v>
+      </c>
+      <c r="E404" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>193</v>
+      </c>
+      <c r="B405">
+        <v>126</v>
+      </c>
+      <c r="C405" t="s">
+        <v>272</v>
+      </c>
+      <c r="D405" t="s">
+        <v>38</v>
+      </c>
+      <c r="E405" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>193</v>
+      </c>
+      <c r="B406">
+        <v>122</v>
+      </c>
+      <c r="C406" t="s">
+        <v>273</v>
+      </c>
+      <c r="D406" t="s">
+        <v>38</v>
+      </c>
+      <c r="E406" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>193</v>
+      </c>
+      <c r="B407">
+        <v>110</v>
+      </c>
+      <c r="C407" t="s">
+        <v>274</v>
+      </c>
+      <c r="D407" t="s">
+        <v>38</v>
+      </c>
+      <c r="E407" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>193</v>
+      </c>
+      <c r="B408">
+        <v>164</v>
+      </c>
+      <c r="C408" t="s">
+        <v>275</v>
+      </c>
+      <c r="D408" t="s">
+        <v>40</v>
+      </c>
+      <c r="E408" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>193</v>
+      </c>
+      <c r="B409">
+        <v>156</v>
+      </c>
+      <c r="C409" t="s">
+        <v>276</v>
+      </c>
+      <c r="D409" t="s">
+        <v>40</v>
+      </c>
+      <c r="E409" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>193</v>
+      </c>
+      <c r="B410">
+        <v>190</v>
+      </c>
+      <c r="C410" t="s">
+        <v>277</v>
+      </c>
+      <c r="D410" t="s">
+        <v>40</v>
+      </c>
+      <c r="E410" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>193</v>
+      </c>
+      <c r="B411">
+        <v>169</v>
+      </c>
+      <c r="C411" t="s">
+        <v>278</v>
+      </c>
+      <c r="D411" t="s">
+        <v>40</v>
+      </c>
+      <c r="E411" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>193</v>
+      </c>
+      <c r="B412">
+        <v>174</v>
+      </c>
+      <c r="C412" t="s">
+        <v>279</v>
+      </c>
+      <c r="D412" t="s">
+        <v>40</v>
+      </c>
+      <c r="E412" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>193</v>
+      </c>
+      <c r="B413">
+        <v>162</v>
+      </c>
+      <c r="C413" t="s">
+        <v>280</v>
+      </c>
+      <c r="D413" t="s">
+        <v>40</v>
+      </c>
+      <c r="E413" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>193</v>
+      </c>
+      <c r="B414">
+        <v>125</v>
+      </c>
+      <c r="C414" t="s">
+        <v>281</v>
+      </c>
+      <c r="D414" t="s">
+        <v>38</v>
+      </c>
+      <c r="E414" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>193</v>
+      </c>
+      <c r="B415">
+        <v>127</v>
+      </c>
+      <c r="C415" t="s">
+        <v>282</v>
+      </c>
+      <c r="D415" t="s">
+        <v>38</v>
+      </c>
+      <c r="E415" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>193</v>
+      </c>
+      <c r="B416">
+        <v>180</v>
+      </c>
+      <c r="C416" t="s">
+        <v>283</v>
+      </c>
+      <c r="D416" t="s">
+        <v>40</v>
+      </c>
+      <c r="E416" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>193</v>
+      </c>
+      <c r="B417">
+        <v>101</v>
+      </c>
+      <c r="C417" t="s">
+        <v>284</v>
+      </c>
+      <c r="D417" t="s">
+        <v>38</v>
+      </c>
+      <c r="E417" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>193</v>
+      </c>
+      <c r="B418">
+        <v>118</v>
+      </c>
+      <c r="C418" t="s">
+        <v>285</v>
+      </c>
+      <c r="D418" t="s">
+        <v>38</v>
+      </c>
+      <c r="E418" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>193</v>
+      </c>
+      <c r="B419">
+        <v>144</v>
+      </c>
+      <c r="C419" t="s">
+        <v>286</v>
+      </c>
+      <c r="D419" t="s">
+        <v>38</v>
+      </c>
+      <c r="E419" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>193</v>
+      </c>
+      <c r="B420">
+        <v>142</v>
+      </c>
+      <c r="C420" t="s">
+        <v>287</v>
+      </c>
+      <c r="D420" t="s">
+        <v>38</v>
+      </c>
+      <c r="E420" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>193</v>
+      </c>
+      <c r="B421">
+        <v>171</v>
+      </c>
+      <c r="C421" t="s">
+        <v>288</v>
+      </c>
+      <c r="D421" t="s">
+        <v>40</v>
+      </c>
+      <c r="E421" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>193</v>
+      </c>
+      <c r="B422">
+        <v>187</v>
+      </c>
+      <c r="C422" t="s">
+        <v>289</v>
+      </c>
+      <c r="D422" t="s">
+        <v>40</v>
+      </c>
+      <c r="E422" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>193</v>
+      </c>
+      <c r="B423">
+        <v>183</v>
+      </c>
+      <c r="C423" t="s">
+        <v>290</v>
+      </c>
+      <c r="D423" t="s">
+        <v>40</v>
+      </c>
+      <c r="E423" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>193</v>
+      </c>
+      <c r="B424">
+        <v>167</v>
+      </c>
+      <c r="C424" t="s">
+        <v>291</v>
+      </c>
+      <c r="D424" t="s">
+        <v>40</v>
+      </c>
+      <c r="E424" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>193</v>
+      </c>
+      <c r="B425">
+        <v>109</v>
+      </c>
+      <c r="C425" t="s">
+        <v>292</v>
+      </c>
+      <c r="D425" t="s">
+        <v>38</v>
+      </c>
+      <c r="E425" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>193</v>
+      </c>
+      <c r="B426">
+        <v>150</v>
+      </c>
+      <c r="C426" t="s">
+        <v>293</v>
+      </c>
+      <c r="D426" t="s">
+        <v>40</v>
+      </c>
+      <c r="E426" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>193</v>
+      </c>
+      <c r="B427">
+        <v>104</v>
+      </c>
+      <c r="C427" t="s">
+        <v>294</v>
+      </c>
+      <c r="D427" t="s">
+        <v>38</v>
+      </c>
+      <c r="E427" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -6791,7 +8629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6813,15 +8651,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C2">
         <v>20200310</v>

--- a/LF/PreTAS/Ivory Coast/civ_pretas_village.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_village.xlsx
@@ -616,12 +616,6 @@
     <t>Site sentinelle/control ponctuel</t>
   </si>
   <si>
-    <t>cv_pretas_lf_village_v3</t>
-  </si>
-  <si>
-    <t>1. Côte d'Ivoire - Pré TAS FL Formulaire Site V3</t>
-  </si>
-  <si>
     <t>Code du Site sentinelle/control ponctuel</t>
   </si>
   <si>
@@ -914,6 +908,12 @@
   </si>
   <si>
     <t>ZONONKOI (104)</t>
+  </si>
+  <si>
+    <t>1. Côte d'Ivoire - Pré TAS FL Formulaire Site V4</t>
+  </si>
+  <si>
+    <t>cv_pretas_lf_village_v4</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1509,7 @@
         <v>192</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1536,10 +1536,10 @@
         <v>186</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -7061,7 +7061,7 @@
         <v>153</v>
       </c>
       <c r="C336" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D336" t="s">
         <v>40</v>
@@ -7078,7 +7078,7 @@
         <v>159</v>
       </c>
       <c r="C337" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D337" t="s">
         <v>40</v>
@@ -7095,7 +7095,7 @@
         <v>158</v>
       </c>
       <c r="C338" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D338" t="s">
         <v>40</v>
@@ -7112,7 +7112,7 @@
         <v>151</v>
       </c>
       <c r="C339" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D339" t="s">
         <v>40</v>
@@ -7129,7 +7129,7 @@
         <v>107</v>
       </c>
       <c r="C340" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D340" t="s">
         <v>38</v>
@@ -7146,7 +7146,7 @@
         <v>148</v>
       </c>
       <c r="C341" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D341" t="s">
         <v>40</v>
@@ -7163,7 +7163,7 @@
         <v>124</v>
       </c>
       <c r="C342" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D342" t="s">
         <v>38</v>
@@ -7180,7 +7180,7 @@
         <v>170</v>
       </c>
       <c r="C343" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D343" t="s">
         <v>40</v>
@@ -7197,7 +7197,7 @@
         <v>147</v>
       </c>
       <c r="C344" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D344" t="s">
         <v>40</v>
@@ -7214,7 +7214,7 @@
         <v>163</v>
       </c>
       <c r="C345" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D345" t="s">
         <v>40</v>
@@ -7231,7 +7231,7 @@
         <v>138</v>
       </c>
       <c r="C346" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D346" t="s">
         <v>38</v>
@@ -7248,7 +7248,7 @@
         <v>152</v>
       </c>
       <c r="C347" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D347" t="s">
         <v>40</v>
@@ -7265,7 +7265,7 @@
         <v>191</v>
       </c>
       <c r="C348" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D348" t="s">
         <v>40</v>
@@ -7282,7 +7282,7 @@
         <v>136</v>
       </c>
       <c r="C349" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D349" t="s">
         <v>38</v>
@@ -7299,7 +7299,7 @@
         <v>139</v>
       </c>
       <c r="C350" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D350" t="s">
         <v>38</v>
@@ -7316,7 +7316,7 @@
         <v>168</v>
       </c>
       <c r="C351" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D351" t="s">
         <v>40</v>
@@ -7333,7 +7333,7 @@
         <v>160</v>
       </c>
       <c r="C352" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D352" t="s">
         <v>40</v>
@@ -7350,7 +7350,7 @@
         <v>108</v>
       </c>
       <c r="C353" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D353" t="s">
         <v>38</v>
@@ -7367,7 +7367,7 @@
         <v>115</v>
       </c>
       <c r="C354" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D354" t="s">
         <v>38</v>
@@ -7384,7 +7384,7 @@
         <v>155</v>
       </c>
       <c r="C355" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D355" t="s">
         <v>40</v>
@@ -7401,7 +7401,7 @@
         <v>137</v>
       </c>
       <c r="C356" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D356" t="s">
         <v>38</v>
@@ -7418,7 +7418,7 @@
         <v>184</v>
       </c>
       <c r="C357" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D357" t="s">
         <v>40</v>
@@ -7435,7 +7435,7 @@
         <v>177</v>
       </c>
       <c r="C358" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D358" t="s">
         <v>40</v>
@@ -7452,7 +7452,7 @@
         <v>186</v>
       </c>
       <c r="C359" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D359" t="s">
         <v>40</v>
@@ -7469,7 +7469,7 @@
         <v>102</v>
       </c>
       <c r="C360" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D360" t="s">
         <v>38</v>
@@ -7486,7 +7486,7 @@
         <v>149</v>
       </c>
       <c r="C361" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D361" t="s">
         <v>40</v>
@@ -7503,7 +7503,7 @@
         <v>178</v>
       </c>
       <c r="C362" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D362" t="s">
         <v>40</v>
@@ -7520,7 +7520,7 @@
         <v>114</v>
       </c>
       <c r="C363" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D363" t="s">
         <v>38</v>
@@ -7537,7 +7537,7 @@
         <v>166</v>
       </c>
       <c r="C364" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D364" t="s">
         <v>40</v>
@@ -7554,7 +7554,7 @@
         <v>141</v>
       </c>
       <c r="C365" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D365" t="s">
         <v>38</v>
@@ -7571,7 +7571,7 @@
         <v>103</v>
       </c>
       <c r="C366" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D366" t="s">
         <v>38</v>
@@ -7588,7 +7588,7 @@
         <v>131</v>
       </c>
       <c r="C367" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D367" t="s">
         <v>38</v>
@@ -7605,7 +7605,7 @@
         <v>165</v>
       </c>
       <c r="C368" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D368" t="s">
         <v>40</v>
@@ -7622,7 +7622,7 @@
         <v>132</v>
       </c>
       <c r="C369" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D369" t="s">
         <v>38</v>
@@ -7639,7 +7639,7 @@
         <v>145</v>
       </c>
       <c r="C370" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D370" t="s">
         <v>38</v>
@@ -7656,7 +7656,7 @@
         <v>175</v>
       </c>
       <c r="C371" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D371" t="s">
         <v>40</v>
@@ -7673,7 +7673,7 @@
         <v>173</v>
       </c>
       <c r="C372" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D372" t="s">
         <v>40</v>
@@ -7690,7 +7690,7 @@
         <v>120</v>
       </c>
       <c r="C373" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D373" t="s">
         <v>38</v>
@@ -7707,7 +7707,7 @@
         <v>157</v>
       </c>
       <c r="C374" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D374" t="s">
         <v>40</v>
@@ -7724,7 +7724,7 @@
         <v>176</v>
       </c>
       <c r="C375" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D375" t="s">
         <v>40</v>
@@ -7741,7 +7741,7 @@
         <v>123</v>
       </c>
       <c r="C376" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D376" t="s">
         <v>38</v>
@@ -7758,7 +7758,7 @@
         <v>161</v>
       </c>
       <c r="C377" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D377" t="s">
         <v>40</v>
@@ -7775,7 +7775,7 @@
         <v>182</v>
       </c>
       <c r="C378" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D378" t="s">
         <v>40</v>
@@ -7792,7 +7792,7 @@
         <v>181</v>
       </c>
       <c r="C379" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D379" t="s">
         <v>40</v>
@@ -7809,7 +7809,7 @@
         <v>100</v>
       </c>
       <c r="C380" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D380" t="s">
         <v>38</v>
@@ -7826,7 +7826,7 @@
         <v>134</v>
       </c>
       <c r="C381" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D381" t="s">
         <v>38</v>
@@ -7843,7 +7843,7 @@
         <v>106</v>
       </c>
       <c r="C382" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D382" t="s">
         <v>38</v>
@@ -7860,7 +7860,7 @@
         <v>185</v>
       </c>
       <c r="C383" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D383" t="s">
         <v>40</v>
@@ -7877,7 +7877,7 @@
         <v>140</v>
       </c>
       <c r="C384" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D384" t="s">
         <v>38</v>
@@ -7894,7 +7894,7 @@
         <v>146</v>
       </c>
       <c r="C385" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D385" t="s">
         <v>40</v>
@@ -7911,7 +7911,7 @@
         <v>128</v>
       </c>
       <c r="C386" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D386" t="s">
         <v>38</v>
@@ -7928,7 +7928,7 @@
         <v>189</v>
       </c>
       <c r="C387" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D387" t="s">
         <v>40</v>
@@ -7945,7 +7945,7 @@
         <v>112</v>
       </c>
       <c r="C388" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D388" t="s">
         <v>38</v>
@@ -7962,7 +7962,7 @@
         <v>119</v>
       </c>
       <c r="C389" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D389" t="s">
         <v>38</v>
@@ -7979,7 +7979,7 @@
         <v>129</v>
       </c>
       <c r="C390" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D390" t="s">
         <v>38</v>
@@ -7996,7 +7996,7 @@
         <v>135</v>
       </c>
       <c r="C391" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D391" t="s">
         <v>38</v>
@@ -8013,7 +8013,7 @@
         <v>105</v>
       </c>
       <c r="C392" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D392" t="s">
         <v>38</v>
@@ -8030,7 +8030,7 @@
         <v>113</v>
       </c>
       <c r="C393" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D393" t="s">
         <v>38</v>
@@ -8047,7 +8047,7 @@
         <v>121</v>
       </c>
       <c r="C394" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D394" t="s">
         <v>38</v>
@@ -8064,7 +8064,7 @@
         <v>143</v>
       </c>
       <c r="C395" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D395" t="s">
         <v>38</v>
@@ -8081,7 +8081,7 @@
         <v>111</v>
       </c>
       <c r="C396" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D396" t="s">
         <v>38</v>
@@ -8098,7 +8098,7 @@
         <v>133</v>
       </c>
       <c r="C397" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D397" t="s">
         <v>38</v>
@@ -8115,7 +8115,7 @@
         <v>117</v>
       </c>
       <c r="C398" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D398" t="s">
         <v>38</v>
@@ -8132,7 +8132,7 @@
         <v>154</v>
       </c>
       <c r="C399" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D399" t="s">
         <v>40</v>
@@ -8149,7 +8149,7 @@
         <v>116</v>
       </c>
       <c r="C400" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D400" t="s">
         <v>38</v>
@@ -8166,7 +8166,7 @@
         <v>172</v>
       </c>
       <c r="C401" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D401" t="s">
         <v>40</v>
@@ -8183,7 +8183,7 @@
         <v>179</v>
       </c>
       <c r="C402" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D402" t="s">
         <v>40</v>
@@ -8200,7 +8200,7 @@
         <v>188</v>
       </c>
       <c r="C403" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D403" t="s">
         <v>40</v>
@@ -8217,7 +8217,7 @@
         <v>130</v>
       </c>
       <c r="C404" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D404" t="s">
         <v>38</v>
@@ -8234,7 +8234,7 @@
         <v>126</v>
       </c>
       <c r="C405" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D405" t="s">
         <v>38</v>
@@ -8251,7 +8251,7 @@
         <v>122</v>
       </c>
       <c r="C406" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D406" t="s">
         <v>38</v>
@@ -8268,7 +8268,7 @@
         <v>110</v>
       </c>
       <c r="C407" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D407" t="s">
         <v>38</v>
@@ -8285,7 +8285,7 @@
         <v>164</v>
       </c>
       <c r="C408" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D408" t="s">
         <v>40</v>
@@ -8302,7 +8302,7 @@
         <v>156</v>
       </c>
       <c r="C409" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D409" t="s">
         <v>40</v>
@@ -8319,7 +8319,7 @@
         <v>190</v>
       </c>
       <c r="C410" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D410" t="s">
         <v>40</v>
@@ -8336,7 +8336,7 @@
         <v>169</v>
       </c>
       <c r="C411" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D411" t="s">
         <v>40</v>
@@ -8353,7 +8353,7 @@
         <v>174</v>
       </c>
       <c r="C412" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D412" t="s">
         <v>40</v>
@@ -8370,7 +8370,7 @@
         <v>162</v>
       </c>
       <c r="C413" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D413" t="s">
         <v>40</v>
@@ -8387,7 +8387,7 @@
         <v>125</v>
       </c>
       <c r="C414" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D414" t="s">
         <v>38</v>
@@ -8404,7 +8404,7 @@
         <v>127</v>
       </c>
       <c r="C415" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D415" t="s">
         <v>38</v>
@@ -8421,7 +8421,7 @@
         <v>180</v>
       </c>
       <c r="C416" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D416" t="s">
         <v>40</v>
@@ -8438,7 +8438,7 @@
         <v>101</v>
       </c>
       <c r="C417" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D417" t="s">
         <v>38</v>
@@ -8455,7 +8455,7 @@
         <v>118</v>
       </c>
       <c r="C418" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D418" t="s">
         <v>38</v>
@@ -8472,7 +8472,7 @@
         <v>144</v>
       </c>
       <c r="C419" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D419" t="s">
         <v>38</v>
@@ -8489,7 +8489,7 @@
         <v>142</v>
       </c>
       <c r="C420" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D420" t="s">
         <v>38</v>
@@ -8506,7 +8506,7 @@
         <v>171</v>
       </c>
       <c r="C421" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D421" t="s">
         <v>40</v>
@@ -8523,7 +8523,7 @@
         <v>187</v>
       </c>
       <c r="C422" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D422" t="s">
         <v>40</v>
@@ -8540,7 +8540,7 @@
         <v>183</v>
       </c>
       <c r="C423" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D423" t="s">
         <v>40</v>
@@ -8557,7 +8557,7 @@
         <v>167</v>
       </c>
       <c r="C424" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D424" t="s">
         <v>40</v>
@@ -8574,7 +8574,7 @@
         <v>109</v>
       </c>
       <c r="C425" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D425" t="s">
         <v>38</v>
@@ -8591,7 +8591,7 @@
         <v>150</v>
       </c>
       <c r="C426" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D426" t="s">
         <v>40</v>
@@ -8608,7 +8608,7 @@
         <v>104</v>
       </c>
       <c r="C427" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D427" t="s">
         <v>38</v>
@@ -8630,7 +8630,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8656,13 +8656,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="C2">
-        <v>20200310</v>
+        <v>20200320</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>

--- a/LF/PreTAS/Ivory Coast/civ_pretas_village.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_village.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B0278-C357-4F7C-B5E9-AC8362FD4A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="295">
   <si>
     <t>form_title</t>
   </si>
@@ -910,16 +911,16 @@
     <t>ZONONKOI (104)</t>
   </si>
   <si>
-    <t>1. Côte d'Ivoire - Pré TAS FL Formulaire Site V4</t>
-  </si>
-  <si>
-    <t>cv_pretas_lf_village_v4</t>
+    <t>1. Côte d'Ivoire - Pré TAS FL Formulaire Site V6</t>
+  </si>
+  <si>
+    <t>cv_pretas_lf_village_v6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1345,11 +1346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J9" sqref="H9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1598,13 +1599,9 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>187</v>
-      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="14"/>
@@ -1689,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8618,7 +8615,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A14:C59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C59">
     <sortCondition ref="B14:B59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8626,11 +8623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8662,7 +8659,7 @@
         <v>294</v>
       </c>
       <c r="C2">
-        <v>20200320</v>
+        <v>20201819</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
